--- a/results/graphs.xlsx
+++ b/results/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\code\github\2023-s2-os-prac2\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nathan\uni\2023-s2-os-prac2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D7F07-49E0-4A57-A518-8DA6E827B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82D80A-0853-4453-ABB8-3979C0F8B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE6B10EC-A303-45B9-BA79-BE723CD4D42D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE6B10EC-A303-45B9-BA79-BE723CD4D42D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>num frames</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>page hit rate</t>
+  </si>
+  <si>
+    <t>sixpack</t>
   </si>
 </sst>
 </file>
@@ -112,6 +115,1243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sixpack</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Trace</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.820000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2F3-458A-8F23-53429F4F5D4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.440000000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2F3-458A-8F23-53429F4F5D4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2F3-458A-8F23-53429F4F5D4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="289355248"/>
+        <c:axId val="289356328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="289355248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289356328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289356328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Page</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> hit rate %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289355248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1638A8DE-575D-08CB-8A93-E22815668657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,21 +1651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88AD1BC-81D0-4F61-B54D-33CF5EA13EEC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -442,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -457,7 +1697,7 @@
         <v>88.86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -472,7 +1712,7 @@
         <v>90.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -487,7 +1727,7 @@
         <v>86.850000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -502,7 +1742,7 @@
         <v>95.38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -517,7 +1757,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -532,7 +1772,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -547,7 +1787,7 @@
         <v>99.59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -562,7 +1802,7 @@
         <v>99.61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -577,7 +1817,229 @@
         <v>99.44</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="E13">
+        <f>(1-D13)*100</f>
+        <v>67.06</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>20.76</v>
+      </c>
+      <c r="I13">
+        <v>67.06</v>
+      </c>
+      <c r="J13">
+        <v>80.820000000000007</v>
+      </c>
+      <c r="K13">
+        <v>85.69</v>
+      </c>
+      <c r="L13">
+        <v>88.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E21" si="1">(1-D14)*100</f>
+        <v>71.740000000000009</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>20.76</v>
+      </c>
+      <c r="I14">
+        <v>71.740000000000009</v>
+      </c>
+      <c r="J14">
+        <v>82.35</v>
+      </c>
+      <c r="K14">
+        <v>86.440000000000012</v>
+      </c>
+      <c r="L14">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.3548</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>64.52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>20.76</v>
+      </c>
+      <c r="I15">
+        <v>64.52</v>
+      </c>
+      <c r="J15">
+        <v>76.92</v>
+      </c>
+      <c r="K15">
+        <v>82.27</v>
+      </c>
+      <c r="L15">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.1918</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>80.820000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0.1431</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>0.1356</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>86.440000000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>82.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>